--- a/Upper1.xlsx
+++ b/Upper1.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,470 +458,2378 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44867.75</v>
+        <v>44091.875</v>
       </c>
       <c r="B2" t="n">
-        <v>20728.98477044841</v>
+        <v>2.852608721863461</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44867.77083333334</v>
+        <v>44092.04166666666</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>20461.93642992999</v>
+        <v>2.746300057091123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44869.29166666666</v>
+        <v>44092.46875</v>
       </c>
       <c r="B4" t="n">
-        <v>20582.22384537012</v>
+        <v>3.138861889786707</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44869.51041666666</v>
+        <v>44092.58333333334</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>20472.7604804033</v>
+        <v>2.96490131243226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44869.54166666666</v>
+        <v>44095.14583333334</v>
       </c>
       <c r="B6" t="n">
-        <v>20799.33674979569</v>
+        <v>3.014455109209427</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44869.66666666666</v>
+        <v>44095.27083333334</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>20675.76724782426</v>
+        <v>2.880147530312324</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44870.02083333334</v>
+        <v>44105.23958333334</v>
       </c>
       <c r="B8" t="n">
-        <v>21391.54748565796</v>
+        <v>2.979807300668207</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44870.34375</v>
+        <v>44105.46875</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>21287.18213230155</v>
+        <v>2.949943077320071</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44873.69791666666</v>
+        <v>44109.54166666666</v>
       </c>
       <c r="B10" t="n">
-        <v>20388.05930927646</v>
+        <v>2.605001212576348</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44873.71875</v>
+        <v>44110.05208333334</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>19788.1816376747</v>
+        <v>2.623037684759741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44875.5625</v>
+        <v>44111.76041666666</v>
       </c>
       <c r="B12" t="n">
-        <v>17687.75013585968</v>
+        <v>2.383761489978445</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44876.01041666666</v>
+        <v>44111.90625</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>17458.38802941409</v>
+        <v>2.270933546168433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44879.32291666666</v>
+        <v>44112.63541666666</v>
       </c>
       <c r="B14" t="n">
-        <v>16837.37367262333</v>
+        <v>2.374859131875656</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44879.57291666666</v>
+        <v>44113.01041666666</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>16562.99886394121</v>
+        <v>2.330832029235025</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44883</v>
+        <v>44113.40625</v>
       </c>
       <c r="B16" t="n">
-        <v>16937.58885524121</v>
+        <v>2.529053740817749</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44883.25</v>
+        <v>44113.75</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>16779.71732661696</v>
+        <v>2.529929216439943</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44884.9375</v>
+        <v>44116.20833333334</v>
       </c>
       <c r="B18" t="n">
-        <v>16793.32326375027</v>
+        <v>2.528330668259547</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44885.07291666666</v>
+        <v>44116.4375</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>16675.17617538407</v>
+        <v>2.506602201215864</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44887.55208333334</v>
+        <v>44116.76041666666</v>
       </c>
       <c r="B20" t="n">
-        <v>16163.83010844599</v>
+        <v>2.652188684966341</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44888.57291666666</v>
+        <v>44116.91666666666</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>16488.59324201042</v>
+        <v>2.588613734349881</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44894.19791666666</v>
+        <v>44126.47916666666</v>
       </c>
       <c r="B22" t="n">
-        <v>16480.54809308414</v>
+        <v>2.053312236637297</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44894.5625</v>
+        <v>44126.79166666666</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>16427.60570958576</v>
+        <v>2.03037858239725</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44895.15625</v>
+        <v>44136</v>
       </c>
       <c r="B24" t="n">
-        <v>16878.34661641144</v>
+        <v>1.567809548404891</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44895.52083333334</v>
+        <v>44136.15625</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>16841.07375354354</v>
+        <v>1.535033483218044</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44895.80208333334</v>
+        <v>44136.67708333334</v>
       </c>
       <c r="B26" t="n">
-        <v>17130.22597613866</v>
+        <v>1.593457371824301</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44896.23958333334</v>
+        <v>44137.10416666666</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>17083.06335333276</v>
+        <v>1.60259933313781</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44898</v>
+        <v>44141.13541666666</v>
       </c>
       <c r="B28" t="n">
-        <v>17176.7030966749</v>
+        <v>1.520629019386957</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44898.1875</v>
+        <v>44142.08333333334</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>17011.77218865012</v>
+        <v>1.882804089573251</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44899.75</v>
+        <v>44142.11458333334</v>
       </c>
       <c r="B30" t="n">
-        <v>17147.29648340182</v>
+        <v>2.133748914026711</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44900.5</v>
+        <v>44142.58333333334</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>17270.87445090804</v>
+        <v>2.245845942664026</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44903.76041666666</v>
+        <v>44148.375</v>
       </c>
       <c r="B32" t="n">
-        <v>17025.69171245047</v>
+        <v>2.03027457805934</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44904.34375</v>
+        <v>44148.67708333334</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>17202.1501700419</v>
+        <v>1.995347895833071</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44906.79166666666</v>
+        <v>44150.26041666666</v>
       </c>
       <c r="B34" t="n">
-        <v>17255.1632135281</v>
+        <v>2.046561808176699</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44906.8125</v>
+        <v>44150.71875</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>17167.73485318001</v>
+        <v>2.120061942745602</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44907.86458333334</v>
+        <v>44151.17708333334</v>
       </c>
       <c r="B36" t="n">
-        <v>17124.28898364345</v>
+        <v>2.22634967516009</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44908.29166666666</v>
+        <v>44151.60416666666</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>17139.82070122949</v>
+        <v>2.26128470604922</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44908.53125</v>
+        <v>44154.52083333334</v>
       </c>
       <c r="B38" t="n">
-        <v>17434.42613965682</v>
+        <v>2.177116191072521</v>
       </c>
       <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44909.1875</v>
+        <v>44154.79166666666</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>17752.12376290558</v>
+        <v>2.113661562934919</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44909.60416666666</v>
+        <v>44156.375</v>
       </c>
       <c r="B40" t="n">
-        <v>18040.2599261532</v>
+        <v>2.229084462932164</v>
       </c>
       <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44909.78125</v>
+        <v>44156.48958333334</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>17964.94316615018</v>
+        <v>2.147317764616636</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44909.79166666666</v>
+        <v>44156.60416666666</v>
       </c>
       <c r="B42" t="n">
-        <v>18296.51261878963</v>
+        <v>2.29778010573619</v>
       </c>
       <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44909.80208333334</v>
+        <v>44156.92708333334</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>17964.95981171333</v>
+        <v>2.332787075837039</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44915.10416666666</v>
+        <v>44165.04166666666</v>
       </c>
       <c r="B44" t="n">
-        <v>16807.97281522269</v>
+        <v>1.967680141304972</v>
       </c>
       <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44915.61458333334</v>
+        <v>44165.33333333334</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>16780.30113866558</v>
+        <v>1.935666273424134</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44915.63541666666</v>
+        <v>44166.23958333334</v>
       </c>
       <c r="B46" t="n">
-        <v>17036.10131243878</v>
+        <v>2.043720414487627</v>
       </c>
       <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44915.67708333334</v>
+        <v>44166.46875</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>16810.3306493194</v>
+        <v>2.030759496013879</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44921.98958333334</v>
+        <v>44167.77083333334</v>
       </c>
       <c r="B48" t="n">
-        <v>16929.36101629602</v>
+        <v>2.203912188219618</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44922.03125</v>
+        <v>44167.84375</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>16850.05486196756</v>
+        <v>2.100930994782892</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44925.875</v>
+        <v>44172.66666666666</v>
       </c>
       <c r="B50" t="n">
-        <v>16666.93615934225</v>
+        <v>1.899987338990592</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44926.13541666666</v>
+        <v>44172.75</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>16562.3100613617</v>
+        <v>1.862301724363286</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44928.15625</v>
+        <v>44178.34375</v>
       </c>
       <c r="B52" t="n">
-        <v>16674.69678050787</v>
+        <v>1.529283854901944</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44928.60416666666</v>
+        <v>44178.83333333334</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>16687.52973604036</v>
+        <v>1.572894510843002</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44180.08333333334</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.631309612112789</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44180.14583333334</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>1.591618656440769</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44180.19791666666</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.687965384869856</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44180.59375</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>1.718387281079325</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.814263312945965</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44182.125</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>1.732519523758114</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44190.11458333334</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.413056107212567</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44190.45833333334</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>1.403748964807632</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44192.67708333334</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.394625663777275</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44192.83333333334</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>1.338287038464122</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44193.90625</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.475407526627649</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44194.14583333334</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>1.458924410287995</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44194.39583333334</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.605411617675879</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44194.48958333334</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>1.531574246636474</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44197.05208333334</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.592870408524885</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44197.34375</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>1.567266219524273</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44197.71875</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.707492287318972</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44197.73958333334</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>1.617235815579825</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44197.77083333334</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.75270084727507</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44198.01041666666</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="n">
+        <v>1.71288944917752</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44199.26041666666</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.042166919654702</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44199.5625</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>2.087590663488635</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44204.57291666666</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3.284628169285058</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44204.83333333334</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>3.162118492340033</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44205.83333333334</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.657336908733556</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44206.02083333334</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>3.350247109239577</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44208.16666666666</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3.3384628568849</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44208.55208333334</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v>3.334987386572081</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44208.75</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.701807880477375</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44208.94791666666</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>3.491439818674266</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44212.16666666666</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3.470543218803746</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44212.48958333334</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>3.423777501403865</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44218.625</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3.421041615442193</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44218.9375</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>3.356262555011444</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44220.22916666666</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.700575656417258</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44220.51041666666</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>3.666221661422416</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44221.69791666666</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.782908959522795</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44221.91666666666</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>3.709444001235063</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44224.57291666666</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.952863535703208</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44224.82291666666</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>3.849514210458042</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44226.64583333334</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4.059972847200849</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44227.57291666666</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>4.495481812105577</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44228.96875</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4.57001364372093</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44229.64583333334</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="n">
+        <v>5.071733591711183</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44230.63541666666</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5.498699694561357</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44231.33333333334</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>5.836000784648195</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44231.90625</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6.191334009389601</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44232.4375</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="n">
+        <v>6.69431431101309</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44232.6875</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7.165051636402201</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44232.71875</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>6.80938683596408</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44234.48958333334</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6.550351634847529</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44234.64583333334</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>6.361596570355531</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44235.1875</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7.009250063032344</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44235.55208333334</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>7.209801414741562</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44235.65625</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7.859921673160097</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44236</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>7.79793210209608</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44236.09375</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8.413733154780054</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44236.32291666666</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>8.122811924919585</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44237.07291666666</v>
+      </c>
+      <c r="B112" t="n">
+        <v>8.378713140711513</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44237.5</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>8.23279960854547</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44237.92708333334</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8.903702933211749</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44238.44791666666</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="n">
+        <v>9.197845495857971</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44242.63541666666</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8.90627552689914</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44242.91666666666</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>8.906560377632911</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44245.60416666666</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8.877838658394923</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44246.0625</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="n">
+        <v>8.970357148654591</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44246.375</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9.485587074145744</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44247.03125</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="n">
+        <v>11.08366481300376</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44248.72916666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>11.15578360261358</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44248.86458333334</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="n">
+        <v>10.85027742152425</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44249.875</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12.59756791608745</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44250.20833333334</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="n">
+        <v>13.26324218499715</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44251.77083333334</v>
+      </c>
+      <c r="B126" t="n">
+        <v>18.09575741992037</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44252.08333333334</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="n">
+        <v>17.20491931141494</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44253.73958333334</v>
+      </c>
+      <c r="B128" t="n">
+        <v>15.30450237985839</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44253.84375</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="n">
+        <v>14.42834163368038</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44255.91666666666</v>
+      </c>
+      <c r="B130" t="n">
+        <v>13.40027420752718</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44256.73958333334</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="n">
+        <v>14.79964375935475</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44261.78125</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.84727428303349</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44262.20833333334</v>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="n">
+        <v>12.93024683473671</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44262.54166666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>13.65431965241256</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44262.83333333334</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="n">
+        <v>13.54889844927189</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44264.57291666666</v>
+      </c>
+      <c r="B136" t="n">
+        <v>14.63316595049471</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44265.0625</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="n">
+        <v>14.75699031299314</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44266.70833333334</v>
+      </c>
+      <c r="B138" t="n">
+        <v>14.8634689342766</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44266.73958333334</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="n">
+        <v>14.35637658896804</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44266.82291666666</v>
+      </c>
+      <c r="B140" t="n">
+        <v>15.53048801305134</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44267.3125</v>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="n">
+        <v>16.01936378958497</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44272.67708333334</v>
+      </c>
+      <c r="B142" t="n">
+        <v>13.96378220633327</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>44273.19791666666</v>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="n">
+        <v>14.13341719502864</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>44275.48958333334</v>
+      </c>
+      <c r="B144" t="n">
+        <v>14.79947079556601</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>44275.69791666666</v>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="n">
+        <v>14.6162395491594</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>44277.10416666666</v>
+      </c>
+      <c r="B146" t="n">
+        <v>14.67888100374721</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44277.21875</v>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="n">
+        <v>14.55842247726462</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44277.28125</v>
+      </c>
+      <c r="B148" t="n">
+        <v>15.46642122672814</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44277.5625</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="n">
+        <v>15.76496271752683</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44279.70833333334</v>
+      </c>
+      <c r="B150" t="n">
+        <v>15.25659810330271</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44279.80208333334</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="n">
+        <v>14.82395993162748</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44281.375</v>
+      </c>
+      <c r="B152" t="n">
+        <v>13.99611738517477</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44281.5625</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="n">
+        <v>13.66309367746572</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44282.04166666666</v>
+      </c>
+      <c r="B154" t="n">
+        <v>14.97035677090606</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44282.51041666666</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="n">
+        <v>15.45103202172818</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44283.05208333334</v>
+      </c>
+      <c r="B156" t="n">
+        <v>16.86097831254691</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44283.77083333334</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="n">
+        <v>18.32431923313118</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44285.01041666666</v>
+      </c>
+      <c r="B158" t="n">
+        <v>19.60713609320381</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44285.54166666666</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="n">
+        <v>20.13482238872915</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44289.01041666666</v>
+      </c>
+      <c r="B160" t="n">
+        <v>20.13014851227927</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44289.625</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="n">
+        <v>21.73532658863403</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="B162" t="n">
+        <v>25.70224370405876</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44293.08333333334</v>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="n">
+        <v>24.24738219322874</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44297.64583333334</v>
+      </c>
+      <c r="B164" t="n">
+        <v>27.61875874071296</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44298.30208333334</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="n">
+        <v>28.67515535582551</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>44304.78125</v>
+      </c>
+      <c r="B166" t="n">
+        <v>29.84537892954191</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>44305.1875</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="n">
+        <v>30.47369708103706</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>44305.53125</v>
+      </c>
+      <c r="B168" t="n">
+        <v>34.74209106556127</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>44305.60416666666</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="n">
+        <v>31.82855430294385</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>44310.78125</v>
+      </c>
+      <c r="B170" t="n">
+        <v>41.21086239563635</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44311.14583333334</v>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="n">
+        <v>40.9532956535588</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44311.65625</v>
+      </c>
+      <c r="B172" t="n">
+        <v>46.60842715021967</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44311.77083333334</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="n">
+        <v>43.45319040301195</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>44317.59375</v>
+      </c>
+      <c r="B174" t="n">
+        <v>45.62584948518807</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>44318.14583333334</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="n">
+        <v>48.19832113981851</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44323.65625</v>
+      </c>
+      <c r="B176" t="n">
+        <v>44.59466243019899</v>
+      </c>
+      <c r="C176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>44323.8125</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="n">
+        <v>43.53255668805134</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>44327.875</v>
+      </c>
+      <c r="B178" t="n">
+        <v>44.29506644402447</v>
+      </c>
+      <c r="C178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>44328.1875</v>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="n">
+        <v>43.862858805067</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44331.94791666666</v>
+      </c>
+      <c r="B180" t="n">
+        <v>44.42799856478501</v>
+      </c>
+      <c r="C180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44332.47916666666</v>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="n">
+        <v>46.1658893777388</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44332.5625</v>
+      </c>
+      <c r="B182" t="n">
+        <v>50.42445995155359</v>
+      </c>
+      <c r="C182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44332.67708333334</v>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="n">
+        <v>47.88360660730587</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44334.69791666666</v>
+      </c>
+      <c r="B184" t="n">
+        <v>58.41724485760402</v>
+      </c>
+      <c r="C184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44334.75</v>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="n">
+        <v>53.18368844343191</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44336.70833333334</v>
+      </c>
+      <c r="B186" t="n">
+        <v>50.38232194606261</v>
+      </c>
+      <c r="C186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44336.9375</v>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="n">
+        <v>45.02827937644636</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44342.26041666666</v>
+      </c>
+      <c r="B188" t="n">
+        <v>34.45144865549558</v>
+      </c>
+      <c r="C188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44342.57291666666</v>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="n">
+        <v>33.87467487815209</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44346.29166666666</v>
+      </c>
+      <c r="B190" t="n">
+        <v>29.04836612704431</v>
+      </c>
+      <c r="C190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44346.59375</v>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="n">
+        <v>28.35057435463577</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44347.38541666666</v>
+      </c>
+      <c r="B192" t="n">
+        <v>30.94182972500351</v>
+      </c>
+      <c r="C192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44347.77083333334</v>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="n">
+        <v>31.32487647474663</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44349.52083333334</v>
+      </c>
+      <c r="B194" t="n">
+        <v>33.16693905320015</v>
+      </c>
+      <c r="C194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44349.92708333334</v>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="n">
+        <v>33.56091620584817</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44350.23958333334</v>
+      </c>
+      <c r="B196" t="n">
+        <v>36.85804225489605</v>
+      </c>
+      <c r="C196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44351</v>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>39.16362599353328</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44352.13541666666</v>
+      </c>
+      <c r="B198" t="n">
+        <v>42.29704505562149</v>
+      </c>
+      <c r="C198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44352.40625</v>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="n">
+        <v>40.68215741805414</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44355.875</v>
+      </c>
+      <c r="B200" t="n">
+        <v>42.07193986715876</v>
+      </c>
+      <c r="C200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>44356.09375</v>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="n">
+        <v>39.67342137840019</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>44360.83333333334</v>
+      </c>
+      <c r="B202" t="n">
+        <v>38.49663266195205</v>
+      </c>
+      <c r="C202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44361.13541666666</v>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="n">
+        <v>37.90918403241447</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>44361.66666666666</v>
+      </c>
+      <c r="B204" t="n">
+        <v>40.11143042123435</v>
+      </c>
+      <c r="C204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>44362.375</v>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="n">
+        <v>40.24492880159405</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>44370.04166666666</v>
+      </c>
+      <c r="B206" t="n">
+        <v>30.91186333803838</v>
+      </c>
+      <c r="C206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>44370.58333333334</v>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="n">
+        <v>30.51399733416589</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>44375.34375</v>
+      </c>
+      <c r="B208" t="n">
+        <v>32.88416869795365</v>
+      </c>
+      <c r="C208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>44375.4375</v>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="n">
+        <v>31.56243503545559</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>44375.64583333334</v>
+      </c>
+      <c r="B210" t="n">
+        <v>33.48097295582777</v>
+      </c>
+      <c r="C210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>44375.9375</v>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="n">
+        <v>32.85192419446218</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>44376.58333333334</v>
+      </c>
+      <c r="B212" t="n">
+        <v>35.78221218000824</v>
+      </c>
+      <c r="C212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>44376.76041666666</v>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="n">
+        <v>34.62660370074044</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>44377.91666666666</v>
+      </c>
+      <c r="B214" t="n">
+        <v>35.38544358787565</v>
+      </c>
+      <c r="C214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>44378.10416666666</v>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="n">
+        <v>34.11850483268241</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>44383.36458333334</v>
+      </c>
+      <c r="B216" t="n">
+        <v>34.93069235220472</v>
+      </c>
+      <c r="C216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>44383.38541666666</v>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="n">
+        <v>33.73264184070299</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>44384.4375</v>
+      </c>
+      <c r="B218" t="n">
+        <v>36.04728112959477</v>
+      </c>
+      <c r="C218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>44384.92708333334</v>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="n">
+        <v>36.94075763171076</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>44391.5625</v>
+      </c>
+      <c r="B220" t="n">
+        <v>30.14005615886403</v>
+      </c>
+      <c r="C220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>44392.10416666666</v>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="n">
+        <v>30.74211993423161</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>44398.26041666666</v>
+      </c>
+      <c r="B222" t="n">
+        <v>25.24891509047823</v>
+      </c>
+      <c r="C222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>44398.78125</v>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="n">
+        <v>26.15051891541478</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>44401.03125</v>
+      </c>
+      <c r="B224" t="n">
+        <v>28.65895545263502</v>
+      </c>
+      <c r="C224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>44401.33333333334</v>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="n">
+        <v>28.35227389501017</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>44403.11458333334</v>
+      </c>
+      <c r="B226" t="n">
+        <v>29.84104911238276</v>
+      </c>
+      <c r="C226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>44403.33333333334</v>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="n">
+        <v>29.36151843268062</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>44406.61458333334</v>
+      </c>
+      <c r="B228" t="n">
+        <v>29.40348244421406</v>
+      </c>
+      <c r="C228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>44407.35416666666</v>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="n">
+        <v>31.73624000673923</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>44408.125</v>
+      </c>
+      <c r="B230" t="n">
+        <v>33.68215512052922</v>
+      </c>
+      <c r="C230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>44408.16666666666</v>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="n">
+        <v>32.14354176935358</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>44408.89583333334</v>
+      </c>
+      <c r="B232" t="n">
+        <v>35.91098533999262</v>
+      </c>
+      <c r="C232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>44409.20833333334</v>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="n">
+        <v>35.3897496460668</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>44411.53125</v>
+      </c>
+      <c r="B234" t="n">
+        <v>35.27524099642428</v>
+      </c>
+      <c r="C234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>44411.83333333334</v>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="n">
+        <v>34.4615025772688</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>44412.69791666666</v>
+      </c>
+      <c r="B236" t="n">
+        <v>36.08988041995563</v>
+      </c>
+      <c r="C236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="n">
+        <v>35.71447833897614</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>44414.60416666666</v>
+      </c>
+      <c r="B238" t="n">
+        <v>38.56119635045316</v>
+      </c>
+      <c r="C238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>44415</v>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="n">
+        <v>39.12855014011169</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>44421.29166666666</v>
+      </c>
+      <c r="B240" t="n">
+        <v>43.69465262977101</v>
+      </c>
+      <c r="C240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>44421.60416666666</v>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="n">
+        <v>43.43586827129684</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>44423.08333333334</v>
+      </c>
+      <c r="B242" t="n">
+        <v>45.6474723233794</v>
+      </c>
+      <c r="C242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>44423.16666666666</v>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="n">
+        <v>44.26567291548988</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>44423.64583333334</v>
+      </c>
+      <c r="B244" t="n">
+        <v>48.21417975381821</v>
+      </c>
+      <c r="C244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>44424.82291666666</v>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="n">
+        <v>64.31932694245472</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>44426.46875</v>
+      </c>
+      <c r="B246" t="n">
+        <v>76.84868180548641</v>
+      </c>
+      <c r="C246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>44426.80208333334</v>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="n">
+        <v>74.82994112461198</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44428.70833333334</v>
+      </c>
+      <c r="B248" t="n">
+        <v>77.03376251436077</v>
+      </c>
+      <c r="C248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44429.30208333334</v>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="n">
+        <v>78.72584501219399</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44431.92708333334</v>
+      </c>
+      <c r="B250" t="n">
+        <v>76.44324610244361</v>
+      </c>
+      <c r="C250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44432.02083333334</v>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="n">
+        <v>73.74663726609968</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44432.14583333334</v>
+      </c>
+      <c r="B252" t="n">
+        <v>78.59867560159901</v>
+      </c>
+      <c r="C252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="n">
+        <v>77.06013039735247</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44434.66666666666</v>
+      </c>
+      <c r="B254" t="n">
+        <v>75.87074552887321</v>
+      </c>
+      <c r="C254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44435</v>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="n">
+        <v>74.17048385561863</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44435.08333333334</v>
+      </c>
+      <c r="B256" t="n">
+        <v>82.44685146596191</v>
+      </c>
+      <c r="C256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44435.52083333334</v>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="n">
+        <v>81.17069698676545</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44436.5</v>
+      </c>
+      <c r="B258" t="n">
+        <v>93.291767874153</v>
+      </c>
+      <c r="C258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44437.07291666666</v>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="n">
+        <v>95.12436245027554</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44438.0625</v>
+      </c>
+      <c r="B260" t="n">
+        <v>98.92091644393719</v>
+      </c>
+      <c r="C260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44438.51041666666</v>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="n">
+        <v>98.70667686111113</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44438.69791666666</v>
+      </c>
+      <c r="B262" t="n">
+        <v>107.2932354609799</v>
+      </c>
+      <c r="C262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44438.98958333334</v>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="n">
+        <v>107.7612142486828</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44439.5</v>
+      </c>
+      <c r="B264" t="n">
+        <v>125.7512284381946</v>
+      </c>
+      <c r="C264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44439.61458333334</v>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="n">
+        <v>119.6973127133269</v>
       </c>
     </row>
   </sheetData>
